--- a/input/Input_test.xlsx
+++ b/input/Input_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\company-description\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54663A3F-600F-4A0C-9FD3-37C2317A654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5272F-A1D0-47EB-9EDF-4505CC94CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="624" windowWidth="23004" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Company</t>
   </si>
@@ -70,6 +70,51 @@
   </si>
   <si>
     <t>['CDN &amp; Streaming Delivery', 'Media Services', 'Edge Computing', 'AI Infrastructure', 'Security Services']</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>RTBF (La Radio-Television belge de la Communaute francaise)</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>RTHK (Radio Television Hong Kong)</t>
+  </si>
+  <si>
+    <t>RTI (Radiodiffusion Television Ivoirienne)</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>RTL Group</t>
+  </si>
+  <si>
+    <t>RTL II (Germany)</t>
+  </si>
+  <si>
+    <t>3 (Three)</t>
+  </si>
+  <si>
+    <t>A+E Networks</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>ABC (American Broadcasting Company)</t>
+  </si>
+  <si>
+    <t>ABC (Australian Broadcasting Corporation)</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>Altice</t>
   </si>
 </sst>
 </file>
@@ -387,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A13" sqref="A13:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,6 +493,81 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
